--- a/Gen V.xlsx
+++ b/Gen V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abzb1\Dropbox\Programs\Level-Recurver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED272FD0-C4FA-4EAC-A15A-088F06F525B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4646FC0-54B0-44BF-ABA5-F998E7B07986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="13800" activeTab="4" xr2:uid="{4B601F05-06F2-4221-B5A4-1E9258C18118}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" xr2:uid="{4B601F05-06F2-4221-B5A4-1E9258C18118}"/>
   </bookViews>
   <sheets>
     <sheet name="trdata" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>$ reward</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>bit 2^0 is items, 2^1 is moves</t>
   </si>
   <si>
@@ -2118,6 +2115,9 @@
   </si>
   <si>
     <t>Evolves at</t>
+  </si>
+  <si>
+    <t>AI. Highest bit (128) sets the Double/Triple AI (so it doesn't attack its own Pokemon)</t>
   </si>
 </sst>
 </file>
@@ -2472,23 +2472,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7D1136-1B31-4D2C-AF35-EB175DDDD13B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="37.87890625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>16</v>
+      </c>
+      <c r="J1">
+        <v>32</v>
+      </c>
+      <c r="K1">
+        <v>64</v>
+      </c>
+      <c r="L1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2500,10 +2527,10 @@
         <v>19B4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2519,7 +2546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2532,10 +2559,10 @@
         <v>19B6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2551,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2564,10 +2591,10 @@
         <v>19B8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2580,10 +2607,10 @@
         <v>19B9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2596,10 +2623,10 @@
         <v>19BA</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2612,10 +2639,10 @@
         <v>19BB</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2628,10 +2655,10 @@
         <v>19BC</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2644,10 +2671,10 @@
         <v>19BD</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2660,10 +2687,10 @@
         <v>19BE</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2676,10 +2703,10 @@
         <v>19BF</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2692,10 +2719,10 @@
         <v>19C0</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2708,7 +2735,7 @@
         <v>19C1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2815,16 +2842,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -2839,7 +2866,7 @@
         <v>19AC</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2858,7 +2885,7 @@
         <v>19AD</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2877,7 +2904,7 @@
         <v>19AE</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2896,7 +2923,7 @@
         <v>19AF</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2915,7 +2942,7 @@
         <v>19B0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2934,7 +2961,7 @@
         <v>19B1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2953,7 +2980,7 @@
         <v>19B2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2972,7 +2999,7 @@
         <v>19B3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2991,13 +3018,13 @@
         <v>19B4</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
@@ -3013,13 +3040,13 @@
         <v>19B5</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
@@ -3035,10 +3062,10 @@
         <v>19B6</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
@@ -3054,10 +3081,10 @@
         <v>19B7</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
@@ -3073,10 +3100,10 @@
         <v>19B8</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
@@ -3092,10 +3119,10 @@
         <v>19B9</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
@@ -3111,10 +3138,10 @@
         <v>19BA</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
@@ -3130,10 +3157,10 @@
         <v>19BB</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
@@ -3149,7 +3176,7 @@
         <v>19BC</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
@@ -3165,7 +3192,7 @@
         <v>19BD</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4097,13 +4124,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
       </c>
       <c r="F1">
         <f>G1^(1+H1)/-(G1-100)</f>
@@ -6525,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:C129" si="12">MIN(D98+A98,100)</f>
+        <f t="shared" ref="C98:C101" si="12">MIN(D98+A98,100)</f>
         <v>98</v>
       </c>
       <c r="D98">
@@ -6533,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E129" si="13">A98*F98</f>
+        <f t="shared" ref="E98:E101" si="13">A98*F98</f>
         <v>0.96985053455336701</v>
       </c>
       <c r="F98">
@@ -6625,7 +6652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFD6638-28C1-41BB-9B45-D1CD28AB8D02}">
   <dimension ref="A1:F651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6634,18 +6663,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="E1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" t="s">
         <v>692</v>
-      </c>
-      <c r="F1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="E2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -6653,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -6675,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -6697,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -6719,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -6741,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -6763,7 +6792,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -6785,7 +6814,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6807,7 +6836,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -6829,7 +6858,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -6851,7 +6880,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -6873,7 +6902,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -6895,7 +6924,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -6917,7 +6946,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -6939,7 +6968,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -6961,7 +6990,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6983,7 +7012,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -7005,7 +7034,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -7027,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7049,7 +7078,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -7071,7 +7100,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7093,7 +7122,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -7115,7 +7144,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7137,7 +7166,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -7159,7 +7188,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -7181,7 +7210,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -7203,7 +7232,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -7225,7 +7254,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -7247,7 +7276,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -7269,7 +7298,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -7291,7 +7320,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -7313,7 +7342,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -7335,7 +7364,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -7357,7 +7386,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -7379,7 +7408,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -7401,7 +7430,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -7423,7 +7452,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>36</v>
@@ -7445,7 +7474,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -7467,7 +7496,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>38</v>
@@ -7489,7 +7518,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -7511,7 +7540,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>40</v>
@@ -7533,7 +7562,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -7555,7 +7584,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>169</v>
@@ -7577,7 +7606,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -7599,7 +7628,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>182</v>
@@ -7621,7 +7650,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -7643,7 +7672,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -7665,7 +7694,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>47</v>
@@ -7687,7 +7716,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -7709,7 +7738,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>49</v>
@@ -7731,7 +7760,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -7753,7 +7782,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>51</v>
@@ -7775,7 +7804,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -7797,7 +7826,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>53</v>
@@ -7819,7 +7848,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -7841,7 +7870,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>55</v>
@@ -7863,7 +7892,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -7885,7 +7914,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -7907,7 +7936,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -7929,7 +7958,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>59</v>
@@ -7951,7 +7980,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -7973,7 +8002,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63">
         <v>186</v>
@@ -7995,7 +8024,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64">
         <v>62</v>
@@ -8017,7 +8046,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -8039,7 +8068,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -8061,7 +8090,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67">
         <v>65</v>
@@ -8083,7 +8112,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -8105,7 +8134,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -8127,7 +8156,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70">
         <v>68</v>
@@ -8149,7 +8178,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -8171,7 +8200,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -8193,7 +8222,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73">
         <v>71</v>
@@ -8215,7 +8244,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -8237,7 +8266,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75">
         <v>73</v>
@@ -8259,7 +8288,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -8281,7 +8310,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -8303,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78">
         <v>76</v>
@@ -8325,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -8347,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80">
         <v>78</v>
@@ -8369,7 +8398,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -8391,7 +8420,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82">
         <v>80</v>
@@ -8413,7 +8442,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -8435,7 +8464,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84">
         <v>462</v>
@@ -8457,7 +8486,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85">
         <v>83</v>
@@ -8479,7 +8508,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -8501,7 +8530,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87">
         <v>85</v>
@@ -8523,7 +8552,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -8545,7 +8574,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89">
         <v>87</v>
@@ -8567,7 +8596,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -8589,7 +8618,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91">
         <v>89</v>
@@ -8611,7 +8640,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -8633,7 +8662,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93">
         <v>91</v>
@@ -8655,7 +8684,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -8677,7 +8706,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -8699,7 +8728,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96">
         <v>94</v>
@@ -8721,7 +8750,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97">
         <v>208</v>
@@ -8743,7 +8772,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -8765,7 +8794,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99">
         <v>97</v>
@@ -8787,7 +8816,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -8809,7 +8838,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101">
         <v>99</v>
@@ -8831,7 +8860,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102">
         <v>101</v>
@@ -8853,7 +8882,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103">
         <v>101</v>
@@ -8875,7 +8904,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -8897,7 +8926,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105">
         <v>103</v>
@@ -8919,7 +8948,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -8941,7 +8970,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107">
         <v>105</v>
@@ -8963,7 +8992,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108">
         <v>106</v>
@@ -8985,7 +9014,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109">
         <v>107</v>
@@ -9007,7 +9036,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110">
         <v>463</v>
@@ -9029,7 +9058,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -9051,7 +9080,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112">
         <v>110</v>
@@ -9073,7 +9102,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -9095,7 +9124,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114">
         <v>464</v>
@@ -9117,7 +9146,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115">
         <v>242</v>
@@ -9139,7 +9168,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116">
         <v>465</v>
@@ -9161,7 +9190,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117">
         <v>115</v>
@@ -9183,7 +9212,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -9205,7 +9234,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119">
         <v>230</v>
@@ -9227,7 +9256,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120">
         <v>119</v>
@@ -9249,7 +9278,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121">
         <v>119</v>
@@ -9271,7 +9300,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -9293,7 +9322,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123">
         <v>121</v>
@@ -9315,7 +9344,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124">
         <v>122</v>
@@ -9337,7 +9366,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C125">
         <v>123</v>
@@ -9359,7 +9388,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126">
         <v>124</v>
@@ -9381,7 +9410,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127">
         <v>466</v>
@@ -9403,7 +9432,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128">
         <v>467</v>
@@ -9425,7 +9454,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129">
         <v>127</v>
@@ -9447,7 +9476,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C130">
         <v>128</v>
@@ -9469,7 +9498,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C131">
         <v>130</v>
@@ -9491,7 +9520,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132">
         <v>130</v>
@@ -9513,7 +9542,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C133">
         <v>131</v>
@@ -9535,7 +9564,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C134">
         <v>132</v>
@@ -9557,7 +9586,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C135">
         <v>133</v>
@@ -9579,7 +9608,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C136">
         <v>134</v>
@@ -9601,7 +9630,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C137">
         <v>135</v>
@@ -9623,7 +9652,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C138">
         <v>136</v>
@@ -9645,7 +9674,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139">
         <v>233</v>
@@ -9667,7 +9696,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C140">
         <v>139</v>
@@ -9689,7 +9718,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C141">
         <v>139</v>
@@ -9711,7 +9740,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -9733,7 +9762,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C143">
         <v>141</v>
@@ -9755,7 +9784,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144">
         <v>142</v>
@@ -9777,7 +9806,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C145">
         <v>143</v>
@@ -9799,7 +9828,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C146">
         <v>144</v>
@@ -9821,7 +9850,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C147">
         <v>145</v>
@@ -9843,7 +9872,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C148">
         <v>146</v>
@@ -9865,7 +9894,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -9887,7 +9916,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -9909,7 +9938,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C151">
         <v>149</v>
@@ -9931,7 +9960,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C152">
         <v>150</v>
@@ -9953,7 +9982,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C153">
         <v>151</v>
@@ -9975,7 +10004,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C154">
         <v>153</v>
@@ -9997,7 +10026,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C155">
         <v>154</v>
@@ -10019,7 +10048,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C156">
         <v>154</v>
@@ -10041,7 +10070,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C157">
         <v>156</v>
@@ -10063,7 +10092,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C158">
         <v>157</v>
@@ -10085,7 +10114,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C159">
         <v>157</v>
@@ -10107,7 +10136,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C160">
         <v>159</v>
@@ -10129,7 +10158,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C161">
         <v>160</v>
@@ -10151,7 +10180,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C162">
         <v>160</v>
@@ -10173,7 +10202,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C163">
         <v>162</v>
@@ -10195,7 +10224,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C164">
         <v>162</v>
@@ -10217,7 +10246,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C165">
         <v>164</v>
@@ -10239,7 +10268,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C166">
         <v>164</v>
@@ -10261,7 +10290,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C167">
         <v>166</v>
@@ -10283,7 +10312,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C168">
         <v>166</v>
@@ -10305,7 +10334,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C169">
         <v>168</v>
@@ -10327,7 +10356,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C170">
         <v>168</v>
@@ -10349,7 +10378,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C171">
         <v>169</v>
@@ -10371,7 +10400,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C172">
         <v>171</v>
@@ -10393,7 +10422,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C173">
         <v>171</v>
@@ -10415,7 +10444,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C174">
         <v>25</v>
@@ -10437,7 +10466,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C175">
         <v>35</v>
@@ -10459,7 +10488,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C176">
         <v>39</v>
@@ -10481,7 +10510,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C177">
         <v>176</v>
@@ -10503,7 +10532,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C178">
         <v>468</v>
@@ -10525,7 +10554,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C179">
         <v>178</v>
@@ -10547,7 +10576,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C180">
         <v>178</v>
@@ -10569,7 +10598,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C181">
         <v>180</v>
@@ -10591,7 +10620,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C182">
         <v>181</v>
@@ -10613,7 +10642,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C183">
         <v>181</v>
@@ -10635,7 +10664,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C184">
         <v>182</v>
@@ -10657,7 +10686,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C185">
         <v>184</v>
@@ -10679,7 +10708,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C186">
         <v>184</v>
@@ -10701,7 +10730,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C187">
         <v>185</v>
@@ -10723,7 +10752,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C188">
         <v>186</v>
@@ -10745,7 +10774,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C189">
         <v>188</v>
@@ -10767,7 +10796,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C190">
         <v>189</v>
@@ -10789,7 +10818,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C191">
         <v>189</v>
@@ -10811,7 +10840,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C192">
         <v>424</v>
@@ -10833,7 +10862,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C193">
         <v>192</v>
@@ -10855,7 +10884,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C194">
         <v>192</v>
@@ -10877,7 +10906,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C195">
         <v>469</v>
@@ -10899,7 +10928,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C196">
         <v>195</v>
@@ -10921,7 +10950,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C197">
         <v>195</v>
@@ -10943,7 +10972,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C198">
         <v>196</v>
@@ -10965,7 +10994,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C199">
         <v>197</v>
@@ -10987,7 +11016,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C200">
         <v>430</v>
@@ -11009,7 +11038,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C201">
         <v>199</v>
@@ -11031,7 +11060,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C202">
         <v>429</v>
@@ -11053,7 +11082,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C203">
         <v>201</v>
@@ -11075,7 +11104,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C204">
         <v>202</v>
@@ -11097,7 +11126,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C205">
         <v>203</v>
@@ -11119,7 +11148,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C206">
         <v>205</v>
@@ -11141,7 +11170,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C207">
         <v>205</v>
@@ -11163,7 +11192,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C208">
         <v>206</v>
@@ -11185,7 +11214,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C209">
         <v>472</v>
@@ -11207,7 +11236,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C210">
         <v>208</v>
@@ -11229,7 +11258,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C211">
         <v>210</v>
@@ -11251,7 +11280,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C212">
         <v>210</v>
@@ -11273,7 +11302,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C213">
         <v>211</v>
@@ -11295,7 +11324,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C214">
         <v>212</v>
@@ -11317,7 +11346,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C215">
         <v>213</v>
@@ -11339,7 +11368,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C216">
         <v>214</v>
@@ -11361,7 +11390,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C217">
         <v>461</v>
@@ -11383,7 +11412,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C218">
         <v>217</v>
@@ -11405,7 +11434,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C219">
         <v>217</v>
@@ -11427,7 +11456,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C220">
         <v>219</v>
@@ -11449,7 +11478,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C221">
         <v>219</v>
@@ -11471,7 +11500,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C222">
         <v>221</v>
@@ -11493,7 +11522,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C223">
         <v>473</v>
@@ -11515,7 +11544,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C224">
         <v>222</v>
@@ -11537,7 +11566,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C225">
         <v>224</v>
@@ -11559,7 +11588,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C226">
         <v>224</v>
@@ -11581,7 +11610,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C227">
         <v>225</v>
@@ -11603,7 +11632,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C228">
         <v>226</v>
@@ -11625,7 +11654,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229">
         <v>227</v>
@@ -11647,7 +11676,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C230">
         <v>229</v>
@@ -11669,7 +11698,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C231">
         <v>229</v>
@@ -11691,7 +11720,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C232">
         <v>230</v>
@@ -11713,7 +11742,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C233">
         <v>232</v>
@@ -11735,7 +11764,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C234">
         <v>232</v>
@@ -11757,7 +11786,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C235">
         <v>474</v>
@@ -11779,7 +11808,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C236">
         <v>234</v>
@@ -11801,7 +11830,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C237">
         <v>235</v>
@@ -11823,7 +11852,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C238">
         <v>237</v>
@@ -11845,7 +11874,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C239">
         <v>237</v>
@@ -11867,7 +11896,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C240">
         <v>124</v>
@@ -11889,7 +11918,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C241">
         <v>125</v>
@@ -11911,7 +11940,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C242">
         <v>126</v>
@@ -11933,7 +11962,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C243">
         <v>241</v>
@@ -11955,7 +11984,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C244">
         <v>242</v>
@@ -11977,7 +12006,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C245">
         <v>243</v>
@@ -11999,7 +12028,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C246">
         <v>244</v>
@@ -12021,7 +12050,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C247">
         <v>245</v>
@@ -12043,7 +12072,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C248">
         <v>247</v>
@@ -12065,7 +12094,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C249">
         <v>248</v>
@@ -12087,7 +12116,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C250">
         <v>248</v>
@@ -12109,7 +12138,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C251">
         <v>249</v>
@@ -12131,7 +12160,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C252">
         <v>250</v>
@@ -12153,7 +12182,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C253">
         <v>251</v>
@@ -12175,7 +12204,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C254">
         <v>253</v>
@@ -12197,7 +12226,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C255">
         <v>254</v>
@@ -12219,7 +12248,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C256">
         <v>254</v>
@@ -12241,7 +12270,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C257">
         <v>256</v>
@@ -12263,7 +12292,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C258">
         <v>257</v>
@@ -12285,7 +12314,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C259">
         <v>257</v>
@@ -12307,7 +12336,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C260">
         <v>259</v>
@@ -12329,7 +12358,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C261">
         <v>260</v>
@@ -12351,7 +12380,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C262">
         <v>260</v>
@@ -12373,7 +12402,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C263">
         <v>262</v>
@@ -12395,7 +12424,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C264">
         <v>262</v>
@@ -12417,7 +12446,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C265">
         <v>264</v>
@@ -12439,7 +12468,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C266">
         <v>264</v>
@@ -12461,7 +12490,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C267">
         <v>266</v>
@@ -12483,7 +12512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C268">
         <v>267</v>
@@ -12505,7 +12534,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C269">
         <v>267</v>
@@ -12527,7 +12556,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C270">
         <v>269</v>
@@ -12549,7 +12578,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C271">
         <v>269</v>
@@ -12571,7 +12600,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C272">
         <v>271</v>
@@ -12593,7 +12622,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C273">
         <v>272</v>
@@ -12615,7 +12644,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C274">
         <v>272</v>
@@ -12637,7 +12666,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C275">
         <v>274</v>
@@ -12659,7 +12688,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C276">
         <v>275</v>
@@ -12681,7 +12710,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C277">
         <v>275</v>
@@ -12703,7 +12732,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C278">
         <v>277</v>
@@ -12725,7 +12754,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C279">
         <v>277</v>
@@ -12747,7 +12776,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C280">
         <v>279</v>
@@ -12769,7 +12798,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C281">
         <v>279</v>
@@ -12791,7 +12820,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C282">
         <v>281</v>
@@ -12813,7 +12842,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C283">
         <v>282</v>
@@ -12835,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C284">
         <v>282</v>
@@ -12857,7 +12886,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C285">
         <v>284</v>
@@ -12879,7 +12908,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C286">
         <v>284</v>
@@ -12901,7 +12930,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C287">
         <v>286</v>
@@ -12923,7 +12952,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C288">
         <v>286</v>
@@ -12945,7 +12974,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C289">
         <v>288</v>
@@ -12967,7 +12996,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C290">
         <v>289</v>
@@ -12989,7 +13018,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C291">
         <v>289</v>
@@ -13011,7 +13040,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C292">
         <v>291</v>
@@ -13033,7 +13062,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C293">
         <v>291</v>
@@ -13055,7 +13084,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C294">
         <v>292</v>
@@ -13077,7 +13106,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C295">
         <v>294</v>
@@ -13099,7 +13128,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C296">
         <v>295</v>
@@ -13121,7 +13150,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C297">
         <v>295</v>
@@ -13143,7 +13172,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C298">
         <v>297</v>
@@ -13165,7 +13194,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C299">
         <v>297</v>
@@ -13187,7 +13216,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C300">
         <v>183</v>
@@ -13209,7 +13238,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C301">
         <v>476</v>
@@ -13231,7 +13260,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C302">
         <v>301</v>
@@ -13253,7 +13282,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C303">
         <v>301</v>
@@ -13275,7 +13304,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C304">
         <v>302</v>
@@ -13297,7 +13326,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C305">
         <v>303</v>
@@ -13319,7 +13348,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C306">
         <v>305</v>
@@ -13341,7 +13370,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C307">
         <v>306</v>
@@ -13363,7 +13392,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C308">
         <v>306</v>
@@ -13385,7 +13414,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C309">
         <v>308</v>
@@ -13407,7 +13436,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C310">
         <v>308</v>
@@ -13429,7 +13458,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C311">
         <v>310</v>
@@ -13451,7 +13480,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C312">
         <v>310</v>
@@ -13473,7 +13502,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C313">
         <v>311</v>
@@ -13495,7 +13524,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C314">
         <v>312</v>
@@ -13517,7 +13546,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C315">
         <v>313</v>
@@ -13539,7 +13568,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C316">
         <v>314</v>
@@ -13561,7 +13590,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C317">
         <v>407</v>
@@ -13583,7 +13612,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C318">
         <v>317</v>
@@ -13605,7 +13634,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C319">
         <v>317</v>
@@ -13627,7 +13656,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C320">
         <v>319</v>
@@ -13649,7 +13678,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C321">
         <v>319</v>
@@ -13671,7 +13700,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C322">
         <v>321</v>
@@ -13693,7 +13722,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C323">
         <v>321</v>
@@ -13715,7 +13744,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C324">
         <v>323</v>
@@ -13737,7 +13766,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C325">
         <v>323</v>
@@ -13759,7 +13788,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C326">
         <v>324</v>
@@ -13781,7 +13810,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C327">
         <v>326</v>
@@ -13803,7 +13832,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C328">
         <v>326</v>
@@ -13825,7 +13854,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C329">
         <v>327</v>
@@ -13847,7 +13876,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C330">
         <v>329</v>
@@ -13869,7 +13898,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C331">
         <v>330</v>
@@ -13891,7 +13920,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C332">
         <v>330</v>
@@ -13913,7 +13942,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C333">
         <v>332</v>
@@ -13935,7 +13964,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C334">
         <v>332</v>
@@ -13957,7 +13986,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C335">
         <v>334</v>
@@ -13979,7 +14008,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C336">
         <v>334</v>
@@ -14001,7 +14030,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C337">
         <v>335</v>
@@ -14023,7 +14052,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C338">
         <v>336</v>
@@ -14045,7 +14074,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C339">
         <v>337</v>
@@ -14067,7 +14096,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C340">
         <v>338</v>
@@ -14089,7 +14118,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C341">
         <v>340</v>
@@ -14111,7 +14140,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C342">
         <v>340</v>
@@ -14133,7 +14162,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C343">
         <v>342</v>
@@ -14155,7 +14184,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C344">
         <v>342</v>
@@ -14177,7 +14206,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C345">
         <v>344</v>
@@ -14199,7 +14228,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C346">
         <v>344</v>
@@ -14221,7 +14250,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C347">
         <v>346</v>
@@ -14243,7 +14272,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C348">
         <v>346</v>
@@ -14265,7 +14294,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C349">
         <v>348</v>
@@ -14287,7 +14316,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C350">
         <v>348</v>
@@ -14309,7 +14338,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C351">
         <v>350</v>
@@ -14331,7 +14360,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C352">
         <v>350</v>
@@ -14353,7 +14382,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C353">
         <v>351</v>
@@ -14375,7 +14404,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C354">
         <v>352</v>
@@ -14397,7 +14426,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C355">
         <v>354</v>
@@ -14419,7 +14448,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C356">
         <v>354</v>
@@ -14441,7 +14470,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C357">
         <v>356</v>
@@ -14463,7 +14492,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C358">
         <v>477</v>
@@ -14485,7 +14514,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C359">
         <v>357</v>
@@ -14507,7 +14536,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C360">
         <v>358</v>
@@ -14529,7 +14558,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C361">
         <v>359</v>
@@ -14551,7 +14580,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C362">
         <v>202</v>
@@ -14573,7 +14602,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C363">
         <v>362</v>
@@ -14595,7 +14624,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C364">
         <v>362</v>
@@ -14617,7 +14646,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C365">
         <v>364</v>
@@ -14639,7 +14668,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C366">
         <v>365</v>
@@ -14661,7 +14690,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C367">
         <v>365</v>
@@ -14683,7 +14712,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C368">
         <v>367</v>
@@ -14705,7 +14734,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C369">
         <v>367</v>
@@ -14727,7 +14756,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C370">
         <v>368</v>
@@ -14749,7 +14778,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C371">
         <v>369</v>
@@ -14771,7 +14800,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C372">
         <v>370</v>
@@ -14793,7 +14822,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C373">
         <v>372</v>
@@ -14815,7 +14844,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C374">
         <v>373</v>
@@ -14837,7 +14866,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C375">
         <v>373</v>
@@ -14859,7 +14888,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C376">
         <v>375</v>
@@ -14881,7 +14910,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C377">
         <v>376</v>
@@ -14903,7 +14932,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C378">
         <v>376</v>
@@ -14925,7 +14954,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C379">
         <v>377</v>
@@ -14947,7 +14976,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C380">
         <v>378</v>
@@ -14969,7 +14998,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C381">
         <v>379</v>
@@ -14991,7 +15020,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C382">
         <v>380</v>
@@ -15013,7 +15042,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C383">
         <v>381</v>
@@ -15035,7 +15064,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C384">
         <v>382</v>
@@ -15057,7 +15086,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C385">
         <v>383</v>
@@ -15079,7 +15108,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C386">
         <v>384</v>
@@ -15101,7 +15130,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C387">
         <v>385</v>
@@ -15123,7 +15152,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C388">
         <v>386</v>
@@ -15145,7 +15174,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C389">
         <v>388</v>
@@ -15167,7 +15196,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C390">
         <v>389</v>
@@ -15189,7 +15218,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C391">
         <v>389</v>
@@ -15211,7 +15240,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C392">
         <v>391</v>
@@ -15233,7 +15262,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C393">
         <v>392</v>
@@ -15255,7 +15284,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C394">
         <v>392</v>
@@ -15277,7 +15306,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C395">
         <v>394</v>
@@ -15299,7 +15328,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C396">
         <v>395</v>
@@ -15321,7 +15350,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C397">
         <v>395</v>
@@ -15343,7 +15372,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C398">
         <v>397</v>
@@ -15365,7 +15394,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C399">
         <v>398</v>
@@ -15387,7 +15416,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C400">
         <v>398</v>
@@ -15409,7 +15438,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C401">
         <v>400</v>
@@ -15431,7 +15460,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C402">
         <v>400</v>
@@ -15453,7 +15482,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C403">
         <v>402</v>
@@ -15475,7 +15504,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C404">
         <v>402</v>
@@ -15497,7 +15526,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C405">
         <v>404</v>
@@ -15519,7 +15548,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C406">
         <v>405</v>
@@ -15541,7 +15570,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C407">
         <v>405</v>
@@ -15563,7 +15592,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C408">
         <v>315</v>
@@ -15585,7 +15614,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C409">
         <v>407</v>
@@ -15607,7 +15636,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C410">
         <v>409</v>
@@ -15629,7 +15658,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C411">
         <v>409</v>
@@ -15651,7 +15680,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C412">
         <v>411</v>
@@ -15673,7 +15702,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C413">
         <v>411</v>
@@ -15695,7 +15724,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C414">
         <v>413</v>
@@ -15717,7 +15746,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C415">
         <v>413</v>
@@ -15739,7 +15768,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C416">
         <v>414</v>
@@ -15761,7 +15790,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C417">
         <v>416</v>
@@ -15783,7 +15812,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C418">
         <v>416</v>
@@ -15805,7 +15834,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C419">
         <v>417</v>
@@ -15827,7 +15856,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C420">
         <v>419</v>
@@ -15849,7 +15878,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C421">
         <v>419</v>
@@ -15871,7 +15900,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C422">
         <v>421</v>
@@ -15893,7 +15922,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C423">
         <v>421</v>
@@ -15915,7 +15944,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C424">
         <v>423</v>
@@ -15937,7 +15966,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C425">
         <v>423</v>
@@ -15959,7 +15988,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C426">
         <v>424</v>
@@ -15981,7 +16010,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C427">
         <v>426</v>
@@ -16003,7 +16032,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C428">
         <v>426</v>
@@ -16025,7 +16054,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C429">
         <v>428</v>
@@ -16047,7 +16076,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C430">
         <v>428</v>
@@ -16069,7 +16098,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C431">
         <v>429</v>
@@ -16091,7 +16120,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C432">
         <v>430</v>
@@ -16113,7 +16142,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C433">
         <v>432</v>
@@ -16135,7 +16164,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C434">
         <v>432</v>
@@ -16157,7 +16186,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C435">
         <v>358</v>
@@ -16179,7 +16208,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C436">
         <v>435</v>
@@ -16201,7 +16230,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C437">
         <v>435</v>
@@ -16223,7 +16252,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C438">
         <v>437</v>
@@ -16245,7 +16274,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C439">
         <v>437</v>
@@ -16267,7 +16296,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C440">
         <v>185</v>
@@ -16289,7 +16318,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C441">
         <v>122</v>
@@ -16311,7 +16340,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C442">
         <v>113</v>
@@ -16333,7 +16362,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C443">
         <v>441</v>
@@ -16355,7 +16384,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C444">
         <v>442</v>
@@ -16377,7 +16406,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C445">
         <v>444</v>
@@ -16399,7 +16428,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C446">
         <v>445</v>
@@ -16421,7 +16450,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C447">
         <v>445</v>
@@ -16443,7 +16472,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C448">
         <v>143</v>
@@ -16465,7 +16494,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C449">
         <v>448</v>
@@ -16487,7 +16516,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C450">
         <v>448</v>
@@ -16509,7 +16538,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C451">
         <v>450</v>
@@ -16531,7 +16560,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C452">
         <v>450</v>
@@ -16553,7 +16582,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C453">
         <v>452</v>
@@ -16575,7 +16604,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C454">
         <v>452</v>
@@ -16597,7 +16626,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C455">
         <v>454</v>
@@ -16619,7 +16648,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C456">
         <v>454</v>
@@ -16641,7 +16670,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C457">
         <v>455</v>
@@ -16663,7 +16692,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C458">
         <v>457</v>
@@ -16685,7 +16714,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C459">
         <v>457</v>
@@ -16707,7 +16736,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C460">
         <v>226</v>
@@ -16729,7 +16758,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C461">
         <v>460</v>
@@ -16751,7 +16780,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C462">
         <v>460</v>
@@ -16773,7 +16802,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C463">
         <v>461</v>
@@ -16795,7 +16824,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C464">
         <v>462</v>
@@ -16817,7 +16846,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C465">
         <v>463</v>
@@ -16839,7 +16868,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C466">
         <v>464</v>
@@ -16861,7 +16890,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C467">
         <v>465</v>
@@ -16883,7 +16912,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C468">
         <v>466</v>
@@ -16905,7 +16934,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C469">
         <v>467</v>
@@ -16927,7 +16956,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C470">
         <v>468</v>
@@ -16949,7 +16978,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C471">
         <v>469</v>
@@ -16971,7 +17000,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C472">
         <v>470</v>
@@ -16993,7 +17022,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C473">
         <v>471</v>
@@ -17015,7 +17044,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C474">
         <v>472</v>
@@ -17037,7 +17066,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C475">
         <v>473</v>
@@ -17059,7 +17088,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C476">
         <v>474</v>
@@ -17081,7 +17110,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C477">
         <v>475</v>
@@ -17103,7 +17132,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C478">
         <v>476</v>
@@ -17125,7 +17154,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C479">
         <v>477</v>
@@ -17147,7 +17176,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C480">
         <v>478</v>
@@ -17169,7 +17198,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C481">
         <v>479</v>
@@ -17191,7 +17220,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C482">
         <v>480</v>
@@ -17213,7 +17242,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C483">
         <v>481</v>
@@ -17235,7 +17264,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C484">
         <v>482</v>
@@ -17257,7 +17286,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C485">
         <v>483</v>
@@ -17279,7 +17308,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C486">
         <v>484</v>
@@ -17301,7 +17330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C487">
         <v>485</v>
@@ -17323,7 +17352,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C488">
         <v>486</v>
@@ -17345,7 +17374,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C489">
         <v>487</v>
@@ -17367,7 +17396,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C490">
         <v>488</v>
@@ -17389,7 +17418,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C491">
         <v>489</v>
@@ -17411,7 +17440,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C492">
         <v>490</v>
@@ -17433,7 +17462,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C493">
         <v>491</v>
@@ -17455,7 +17484,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C494">
         <v>492</v>
@@ -17477,7 +17506,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C495">
         <v>493</v>
@@ -17499,7 +17528,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C496">
         <f>A496</f>
@@ -17522,7 +17551,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C497">
         <f>IF(D497&lt;&gt;"",A498,A497)</f>
@@ -17545,7 +17574,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C498">
         <f>IF(D498&lt;&gt;"",A499,A498)</f>
@@ -17568,7 +17597,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C499">
         <f>IF(D499&lt;&gt;"",A500,A499)</f>
@@ -17588,7 +17617,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C500">
         <f t="shared" ref="C500:C510" si="16">IF(D500&lt;&gt;"",A501,A500)</f>
@@ -17611,7 +17640,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C501">
         <f t="shared" si="16"/>
@@ -17634,7 +17663,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C502">
         <f t="shared" si="16"/>
@@ -17654,7 +17683,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C503">
         <f t="shared" si="16"/>
@@ -17677,7 +17706,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C504">
         <f t="shared" si="16"/>
@@ -17700,7 +17729,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C505">
         <f t="shared" si="16"/>
@@ -17720,7 +17749,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C506">
         <f t="shared" si="16"/>
@@ -17743,7 +17772,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C507">
         <f t="shared" si="16"/>
@@ -17763,7 +17792,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C508">
         <f t="shared" si="16"/>
@@ -17786,7 +17815,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C509">
         <f t="shared" si="16"/>
@@ -17809,7 +17838,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C510">
         <f t="shared" si="16"/>
@@ -17829,7 +17858,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C511">
         <f t="shared" ref="C511:C520" si="17">IF(D511&lt;&gt;"",A512,A511)</f>
@@ -17852,7 +17881,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C512">
         <f t="shared" si="17"/>
@@ -17872,7 +17901,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C513">
         <f t="shared" si="17"/>
@@ -17895,7 +17924,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C514">
         <f t="shared" si="17"/>
@@ -17915,7 +17944,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C515">
         <f t="shared" si="17"/>
@@ -17938,7 +17967,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C516">
         <f t="shared" si="17"/>
@@ -17958,7 +17987,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C517">
         <f t="shared" si="17"/>
@@ -17981,7 +18010,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C518">
         <f t="shared" si="17"/>
@@ -18001,7 +18030,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C519">
         <f t="shared" si="17"/>
@@ -18024,7 +18053,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C520">
         <f t="shared" si="17"/>
@@ -18044,7 +18073,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C521">
         <f t="shared" ref="C521:C527" si="20">IF(D521&lt;&gt;"",A522,A521)</f>
@@ -18067,7 +18096,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C522">
         <f t="shared" si="20"/>
@@ -18090,7 +18119,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C523">
         <f t="shared" si="20"/>
@@ -18110,7 +18139,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C524">
         <f t="shared" si="20"/>
@@ -18133,7 +18162,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C525">
         <f t="shared" si="20"/>
@@ -18153,7 +18182,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C526">
         <f t="shared" si="20"/>
@@ -18176,7 +18205,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C527">
         <f t="shared" si="20"/>
@@ -18199,7 +18228,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C528">
         <f t="shared" ref="C528:C545" si="21">IF(D528&lt;&gt;"",A529,A528)</f>
@@ -18219,7 +18248,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C529">
         <f t="shared" si="21"/>
@@ -18239,7 +18268,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C530">
         <f t="shared" si="21"/>
@@ -18259,7 +18288,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C531">
         <f t="shared" si="21"/>
@@ -18282,7 +18311,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C532">
         <f t="shared" si="21"/>
@@ -18302,7 +18331,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C533">
         <f t="shared" si="21"/>
@@ -18322,7 +18351,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C534">
         <f t="shared" si="21"/>
@@ -18345,7 +18374,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C535">
         <f t="shared" si="21"/>
@@ -18365,7 +18394,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C536">
         <f t="shared" si="21"/>
@@ -18385,7 +18414,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C537">
         <f t="shared" si="21"/>
@@ -18408,7 +18437,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C538">
         <f t="shared" si="21"/>
@@ -18431,7 +18460,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C539">
         <f t="shared" si="21"/>
@@ -18451,7 +18480,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C540">
         <f t="shared" si="21"/>
@@ -18471,7 +18500,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C541">
         <f t="shared" si="21"/>
@@ -18491,7 +18520,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C542">
         <f t="shared" si="21"/>
@@ -18514,7 +18543,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C543">
         <f t="shared" si="21"/>
@@ -18534,7 +18563,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C544">
         <f t="shared" si="21"/>
@@ -18554,7 +18583,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C545">
         <f t="shared" si="21"/>
@@ -18577,7 +18606,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C546">
         <f t="shared" ref="C546:C559" si="22">IF(D546&lt;&gt;"",A547,A546)</f>
@@ -18600,7 +18629,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C547">
         <f t="shared" si="22"/>
@@ -18620,7 +18649,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C548">
         <f t="shared" si="22"/>
@@ -18643,7 +18672,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C549">
         <f t="shared" si="22"/>
@@ -18663,7 +18692,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C550">
         <f t="shared" si="22"/>
@@ -18686,7 +18715,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C551">
         <f t="shared" si="22"/>
@@ -18706,7 +18735,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C552">
         <f t="shared" si="22"/>
@@ -18726,7 +18755,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C553">
         <f t="shared" si="22"/>
@@ -18749,7 +18778,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C554">
         <f t="shared" si="22"/>
@@ -18772,7 +18801,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C555">
         <f t="shared" si="22"/>
@@ -18792,7 +18821,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C556">
         <f t="shared" si="22"/>
@@ -18815,7 +18844,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C557">
         <f t="shared" si="22"/>
@@ -18835,7 +18864,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C558">
         <f t="shared" si="22"/>
@@ -18855,7 +18884,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C559">
         <f t="shared" si="22"/>
@@ -18878,7 +18907,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C560">
         <f t="shared" ref="C560:C571" si="23">IF(D560&lt;&gt;"",A561,A560)</f>
@@ -18898,7 +18927,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C561">
         <f t="shared" si="23"/>
@@ -18921,7 +18950,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C562">
         <f t="shared" si="23"/>
@@ -18941,7 +18970,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C563">
         <f t="shared" si="23"/>
@@ -18961,7 +18990,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C564">
         <f t="shared" si="23"/>
@@ -18984,7 +19013,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C565">
         <f t="shared" si="23"/>
@@ -19004,7 +19033,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C566">
         <f t="shared" si="23"/>
@@ -19027,7 +19056,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C567">
         <f t="shared" si="23"/>
@@ -19047,7 +19076,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C568">
         <f t="shared" si="23"/>
@@ -19070,7 +19099,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C569">
         <f t="shared" si="23"/>
@@ -19090,7 +19119,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C570">
         <f t="shared" si="23"/>
@@ -19113,7 +19142,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C571">
         <f t="shared" si="23"/>
@@ -19133,7 +19162,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C572">
         <f t="shared" ref="C572:C586" si="24">IF(D572&lt;&gt;"",A573,A572)</f>
@@ -19156,7 +19185,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C573">
         <f t="shared" si="24"/>
@@ -19176,7 +19205,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C574">
         <f t="shared" si="24"/>
@@ -19199,7 +19228,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C575">
         <f t="shared" si="24"/>
@@ -19219,7 +19248,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C576">
         <f t="shared" si="24"/>
@@ -19242,7 +19271,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C577">
         <f t="shared" si="24"/>
@@ -19265,7 +19294,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C578">
         <f t="shared" si="24"/>
@@ -19285,7 +19314,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C579">
         <f t="shared" si="24"/>
@@ -19308,7 +19337,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C580">
         <f t="shared" si="24"/>
@@ -19331,7 +19360,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C581">
         <f t="shared" si="24"/>
@@ -19351,7 +19380,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C582">
         <f t="shared" si="24"/>
@@ -19374,7 +19403,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C583">
         <f t="shared" si="24"/>
@@ -19394,7 +19423,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C584">
         <f t="shared" si="24"/>
@@ -19417,7 +19446,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C585">
         <f t="shared" si="24"/>
@@ -19440,7 +19469,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C586">
         <f t="shared" si="24"/>
@@ -19460,7 +19489,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C587">
         <f t="shared" ref="C587:C603" si="27">IF(D587&lt;&gt;"",A588,A587)</f>
@@ -19483,7 +19512,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C588">
         <f t="shared" si="27"/>
@@ -19503,7 +19532,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C589">
         <f t="shared" si="27"/>
@@ -19523,7 +19552,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C590">
         <f t="shared" si="27"/>
@@ -19546,7 +19575,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C591">
         <f t="shared" si="27"/>
@@ -19566,7 +19595,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C592">
         <f t="shared" si="27"/>
@@ -19589,7 +19618,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C593">
         <f t="shared" si="27"/>
@@ -19609,7 +19638,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C594">
         <f t="shared" si="27"/>
@@ -19632,7 +19661,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C595">
         <f t="shared" si="27"/>
@@ -19652,7 +19681,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C596">
         <f t="shared" si="27"/>
@@ -19672,7 +19701,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C597">
         <f t="shared" si="27"/>
@@ -19695,7 +19724,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C598">
         <f t="shared" si="27"/>
@@ -19715,7 +19744,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C599">
         <f t="shared" si="27"/>
@@ -19738,7 +19767,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C600">
         <f t="shared" si="27"/>
@@ -19758,7 +19787,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C601">
         <f t="shared" si="27"/>
@@ -19781,7 +19810,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C602">
         <f t="shared" si="27"/>
@@ -19804,7 +19833,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C603">
         <f t="shared" si="27"/>
@@ -19824,7 +19853,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C604">
         <f t="shared" ref="C604:C608" si="28">IF(D604&lt;&gt;"",A605,A604)</f>
@@ -19847,7 +19876,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C605">
         <f t="shared" si="28"/>
@@ -19870,7 +19899,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C606">
         <f t="shared" si="28"/>
@@ -19890,7 +19919,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C607">
         <f t="shared" si="28"/>
@@ -19913,7 +19942,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C608">
         <f t="shared" si="28"/>
@@ -19933,7 +19962,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C609">
         <f t="shared" ref="C609:C616" si="29">IF(D609&lt;&gt;"",A610,A609)</f>
@@ -19956,7 +19985,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C610">
         <f t="shared" si="29"/>
@@ -19979,7 +20008,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C611">
         <f t="shared" si="29"/>
@@ -19999,7 +20028,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C612">
         <f t="shared" si="29"/>
@@ -20022,7 +20051,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C613">
         <f t="shared" si="29"/>
@@ -20045,7 +20074,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C614">
         <f t="shared" si="29"/>
@@ -20065,7 +20094,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C615">
         <f t="shared" si="29"/>
@@ -20088,7 +20117,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C616">
         <f t="shared" si="29"/>
@@ -20108,7 +20137,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C617">
         <f t="shared" ref="C617:C634" si="30">IF(D617&lt;&gt;"",A618,A617)</f>
@@ -20128,7 +20157,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C618">
         <f t="shared" si="30"/>
@@ -20151,7 +20180,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C619">
         <f t="shared" si="30"/>
@@ -20171,7 +20200,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C620">
         <f t="shared" si="30"/>
@@ -20191,7 +20220,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C621">
         <f t="shared" si="30"/>
@@ -20214,7 +20243,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C622">
         <f t="shared" si="30"/>
@@ -20234,7 +20263,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C623">
         <f t="shared" si="30"/>
@@ -20254,7 +20283,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C624">
         <f t="shared" si="30"/>
@@ -20277,7 +20306,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C625">
         <f t="shared" si="30"/>
@@ -20297,7 +20326,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C626">
         <f t="shared" si="30"/>
@@ -20320,7 +20349,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C627">
         <f t="shared" si="30"/>
@@ -20340,7 +20369,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C628">
         <f t="shared" si="30"/>
@@ -20360,7 +20389,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C629">
         <f t="shared" si="30"/>
@@ -20383,7 +20412,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C630">
         <f t="shared" si="30"/>
@@ -20403,7 +20432,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C631">
         <f t="shared" si="30"/>
@@ -20426,7 +20455,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C632">
         <f t="shared" si="30"/>
@@ -20446,7 +20475,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C633">
         <f t="shared" si="30"/>
@@ -20466,7 +20495,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C634">
         <f t="shared" si="30"/>
@@ -20486,7 +20515,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C635">
         <f>IF(D635&lt;&gt;"",A636,A635)</f>
@@ -20509,7 +20538,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C636">
         <f>IF(D636&lt;&gt;"",A637,A636)</f>
@@ -20532,7 +20561,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C637">
         <f>IF(D637&lt;&gt;"",A638,A637)</f>
@@ -20552,7 +20581,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C638">
         <f>IF(D638&lt;&gt;"",A639,A638)</f>
@@ -20575,7 +20604,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C639">
         <f>IF(D639&lt;&gt;"",A640,A639)</f>
@@ -20595,10 +20624,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C640">
-        <f t="shared" ref="C640:C651" si="31">A640</f>
+        <f t="shared" ref="C640:C650" si="31">A640</f>
         <v>638</v>
       </c>
       <c r="E640" t="str">
@@ -20615,7 +20644,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C641">
         <f t="shared" si="31"/>
@@ -20635,7 +20664,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C642">
         <f t="shared" si="31"/>
@@ -20655,7 +20684,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C643">
         <f t="shared" si="31"/>
@@ -20675,7 +20704,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C644">
         <f t="shared" si="31"/>
@@ -20695,7 +20724,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C645">
         <f t="shared" si="31"/>
@@ -20715,7 +20744,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C646">
         <f t="shared" si="31"/>
@@ -20735,7 +20764,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C647">
         <f t="shared" si="31"/>
@@ -20755,7 +20784,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C648">
         <f t="shared" si="31"/>
@@ -20775,7 +20804,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C649">
         <f t="shared" si="31"/>
@@ -20795,7 +20824,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C650">
         <f t="shared" si="31"/>
@@ -20815,7 +20844,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C651">
         <f>A651</f>
@@ -20847,10 +20876,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -21375,7 +21404,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B67">
         <v>20</v>
@@ -21383,7 +21412,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B68">
         <v>20</v>

--- a/Gen V.xlsx
+++ b/Gen V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abzb1\Dropbox\Programs\Level-Recurver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4646FC0-54B0-44BF-ABA5-F998E7B07986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6E0553-18F5-44D7-8FED-5139F7CFD238}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" xr2:uid="{4B601F05-06F2-4221-B5A4-1E9258C18118}"/>
+    <workbookView xWindow="0" yWindow="607" windowWidth="25600" windowHeight="13193" activeTab="1" xr2:uid="{4B601F05-06F2-4221-B5A4-1E9258C18118}"/>
   </bookViews>
   <sheets>
     <sheet name="trdata" sheetId="1" r:id="rId1"/>
@@ -2133,12 +2133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2153,11 +2159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2474,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7D1136-1B31-4D2C-AF35-EB175DDDD13B}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2825,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246F4F73-2B95-488F-B07B-B6E16F552441}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3017,6 +3024,7 @@
         <f t="shared" si="0"/>
         <v>19B4</v>
       </c>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -3039,6 +3047,7 @@
         <f t="shared" si="0"/>
         <v>19B5</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="E11" t="s">
         <v>22</v>
       </c>
@@ -3061,9 +3070,11 @@
         <f t="shared" si="0"/>
         <v>19B6</v>
       </c>
+      <c r="D12" s="2"/>
       <c r="E12" t="s">
         <v>23</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>21</v>
       </c>
@@ -3080,9 +3091,11 @@
         <f t="shared" si="0"/>
         <v>19B7</v>
       </c>
+      <c r="D13" s="2"/>
       <c r="E13" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>22</v>
       </c>
@@ -3099,9 +3112,11 @@
         <f t="shared" si="0"/>
         <v>19B8</v>
       </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s">
         <v>25</v>
       </c>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
         <v>23</v>
       </c>
@@ -3118,9 +3133,11 @@
         <f t="shared" si="0"/>
         <v>19B9</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
         <v>24</v>
       </c>
@@ -3137,9 +3154,11 @@
         <f t="shared" si="0"/>
         <v>19BA</v>
       </c>
+      <c r="D16" s="2"/>
       <c r="E16" t="s">
         <v>27</v>
       </c>
+      <c r="F16" s="2"/>
       <c r="G16" t="s">
         <v>25</v>
       </c>
@@ -3156,9 +3175,11 @@
         <f t="shared" si="0"/>
         <v>19BB</v>
       </c>
+      <c r="D17" s="2"/>
       <c r="E17" t="s">
         <v>28</v>
       </c>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
         <v>26</v>
       </c>
@@ -3175,6 +3196,9 @@
         <f t="shared" si="0"/>
         <v>19BC</v>
       </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
         <v>27</v>
       </c>
@@ -3191,6 +3215,9 @@
         <f t="shared" si="0"/>
         <v>19BD</v>
       </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" t="s">
         <v>28</v>
       </c>
